--- a/Template/Шаблон для загрузки приказов и распоряжений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки приказов и распоряжений в DirectumRX.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Содержание</t>
   </si>
@@ -262,23 +262,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -291,9 +306,7 @@
       <top style="thin">
         <color indexed="63"/>
       </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -306,63 +319,75 @@
       <top style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,103 +737,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="21" style="9" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="32.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="32.140625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="H2" s="12"/>
+    </row>
+    <row r="2" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="11"/>
       <c r="K2" s="13"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="H3" s="12"/>
+    </row>
+    <row r="3" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="11"/>
       <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sort="0" autoFilter="0"/>

--- a/Template/Шаблон для загрузки приказов и распоряжений в DirectumRX.xlsx
+++ b/Template/Шаблон для загрузки приказов и распоряжений в DirectumRX.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\src_dev\rx-util-importdata-net-core\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImportUtil\Core\rx-util-importdata-net-core\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="17100" windowHeight="9855"/>
   </bookViews>
   <sheets>
-    <sheet name="Приказы и Распоряжения" sheetId="1" r:id="rId1"/>
+    <sheet name="Приказы" sheetId="1" r:id="rId1"/>
+    <sheet name="Распоряжения" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Приказы и Распоряжения'!$A$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Приказы!$A$1:$P$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Распоряжения!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -173,8 +175,160 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Никитин Александр  (Nikitin_AA)</author>
+    <author>Попова Елена  (Popova_EI)</author>
+    <author>Калинин Сергей (Kalinin_SV)</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Номер ведущего документа</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Дата ведущего документа</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>наименование записи из справочник "Виды документов"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Основное содержимое</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование записи из справочника Наши Организации</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование записи из справочника Подразделения</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Путь к файлу, который будет являться телом документа. Если считать файл не удастся, документ создан в системе не будет.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование записи из справочника Сотрудники</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование записи из справочника Сотрудники</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Наименование записи из справочника Сотрудники</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Содержание</t>
   </si>
@@ -227,7 +381,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -326,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -388,6 +542,15 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,9 +902,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -786,7 +949,7 @@
       <c r="H1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J1" s="17" t="s">
@@ -1051,4 +1214,119 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="13" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:P1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>